--- a/Documentation/Test Case/Selenium.xlsx
+++ b/Documentation/Test Case/Selenium.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -205,6 +205,55 @@
   </si>
   <si>
     <t>check if view user statistic work correctly</t>
+  </si>
+  <si>
+    <t>VLR01</t>
+  </si>
+  <si>
+    <t>check if view list random user work correctly</t>
+  </si>
+  <si>
+    <t>go to web</t>
+  </si>
+  <si>
+    <t>a list of random user appear</t>
+  </si>
+  <si>
+    <t>1. go to web 
+2. choose login on header
+3. fill in login form and submit
+4. click on a player on search result</t>
+  </si>
+  <si>
+    <t>VPF01</t>
+  </si>
+  <si>
+    <t>check if view profile work correctly</t>
+  </si>
+  <si>
+    <t>user profile show with correct
+ ingamename</t>
+  </si>
+  <si>
+    <t>1. go to web 
+2. choose login on header
+3. fill in login form and submit
+4. click on a player on search result
+5. click on chat button
+6. type "test" in input field
+7. click send</t>
+  </si>
+  <si>
+    <t>message show in text box</t>
+  </si>
+  <si>
+    <t>TCB01</t>
+  </si>
+  <si>
+    <t>check if chat box work correctly</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -532,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +627,9 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -592,6 +644,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -606,6 +661,9 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -620,6 +678,9 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -634,6 +695,9 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -648,6 +712,9 @@
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -662,6 +729,9 @@
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -676,6 +746,9 @@
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -689,6 +762,60 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
